--- a/Libro de problemas.xlsx
+++ b/Libro de problemas.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="8555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>DP en digits</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Colores</t>
   </si>
@@ -47,6 +45,15 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Temas</t>
+  </si>
+  <si>
+    <t>Links de documentos importantes</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
@@ -56,10 +63,151 @@
     <t>https://codeforces.com/gym/104471/problem/F</t>
   </si>
   <si>
+    <t>DP en digitos</t>
+  </si>
+  <si>
+    <t>Temario de Manuel</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1LwVCAZbazh8TzvQ9RwviiOyERkNnjNnxvQJ3pKAinIY/edit?pli=1&amp;gid=0#gid=0</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>Love Inversions</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2039/problem/E</t>
+  </si>
+  <si>
+    <t>DP, combinatoria</t>
+  </si>
+  <si>
+    <t>Solucionario CSES</t>
+  </si>
+  <si>
+    <t>CSES-Solutions/Mathematics/Bracket Sequences I.cpp at main 路 Jonathan-Uy/CSES-Solutions</t>
+  </si>
+  <si>
     <t>No intentado</t>
+  </si>
+  <si>
+    <t>Repositorio Algoritmos</t>
+  </si>
+  <si>
+    <t>https://github.com/brunomaletta/Biblioteca</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Grafos</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Practicado</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>DP en rango</t>
+  </si>
+  <si>
+    <t>Leido</t>
+  </si>
+  <si>
+    <t>DP en subsets</t>
+  </si>
+  <si>
+    <t>Leyendo</t>
+  </si>
+  <si>
+    <t>Data structures</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>SQRT desc</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Segment tree</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>ST Lazy Propagation</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Sparse Table</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Fenwick tree</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>sqrt Tree</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Ranzomized Heap</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
   </si>
 </sst>
 </file>
@@ -67,12 +215,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,11 +235,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF4DD60C"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +402,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4DD60C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,19 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4DD60C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,156 +761,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -739,19 +928,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1292,79 +1493,327 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:P6"/>
+  <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="45.1111111111111" customWidth="1"/>
-    <col min="15" max="15" width="12.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="31.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="109.444444444444" customWidth="1"/>
+    <col min="16" max="16" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="Q3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="P3" t="s">
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="5">
+      <c r="J4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="O5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="15:16">
-      <c r="O6" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="9:10">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://codeforces.com/gym/104471/problem/F" tooltip="https://codeforces.com/gym/104471/problem/F"/>
+    <hyperlink ref="J6" r:id="rId2" display="CSES-Solutions/Mathematics/Bracket Sequences I.cpp at main 路 Jonathan-Uy/CSES-Solutions" tooltip="https://github.com/Jonathan-Uy/CSES-Solutions/blob/main/Mathematics/Bracket Sequences I.cpp"/>
+    <hyperlink ref="J7" r:id="rId3" display="https://github.com/brunomaletta/Biblioteca"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://codeforces.com/contest/2039/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="18.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="12.4444444444444" customWidth="1"/>
+    <col min="15" max="16" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="10.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="9:20">
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="12:20">
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="O20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15">
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="15:15">
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>